--- a/data/meeting_info.xlsx
+++ b/data/meeting_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58777c4a60c85cc9/monash_collaboration/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58777c4a60c85cc9/monash_collaboration/th_bri_railway/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="11_F25DC773A252ABDACC10484CF1DF726C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06242BFA-FC44-4220-87C2-E217F06DF133}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC10484CF1DF726C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32BA5A7-3773-448D-9C10-53E809CF164E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>session</t>
   </si>
@@ -102,13 +102,16 @@
     <t>8,23,25,107</t>
   </si>
   <si>
-    <t>27,206,18,101,201,16</t>
-  </si>
-  <si>
     <t>27,18,19,17,20,101,201,16</t>
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>27,18,101,201,16</t>
+  </si>
+  <si>
+    <t>8,23,25,107,206</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,27 +183,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,22 +499,23 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D28" sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="3" width="10.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.53125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -512,565 +527,565 @@
       <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>42025</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>42026</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>42046</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>42047</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>42073</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>42075</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>42496</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="14">
+        <v>42130</v>
+      </c>
+      <c r="C5" s="14">
         <v>42132</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>42185</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>42187</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>7</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
         <v>42222</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>42224</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
         <v>42258</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>42259</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
         <v>42305</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="14">
         <v>42306</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="14">
         <v>42341</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>42341</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="14">
         <v>42501</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="14">
         <v>42502</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>8</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="14">
         <v>42537</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>42341</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="14">
         <v>42578</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="14">
         <v>42579</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="14">
         <v>42605</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>42606</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="14">
         <v>42632</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="14">
         <v>42634</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="14">
         <v>42730</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>42732</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="F16" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="14">
         <v>42706</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="14">
         <v>42706</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="F17" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="14">
         <v>42832</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>42835</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="E18" s="6">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="14">
         <v>42877</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="14">
         <v>42879</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="8">
-        <v>8</v>
-      </c>
-      <c r="F19" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="D19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="14">
         <v>42921</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>42923</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8">
-        <v>8</v>
-      </c>
-      <c r="F20" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="D20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="14">
         <v>42962</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="14">
         <v>42964</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="8">
-        <v>8</v>
-      </c>
-      <c r="F21" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="D21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="14">
         <v>42998</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>43000</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8">
-        <v>8</v>
-      </c>
-      <c r="F22" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="E22" s="6">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="14">
         <v>43063</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="14">
         <v>43063</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="D23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="14">
         <v>43138</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>43140</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8">
-        <v>8</v>
-      </c>
-      <c r="F24" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="D24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="14">
         <v>43250</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="14">
         <v>43252</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="14">
         <v>43320</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="14">
         <v>43322</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="14">
         <v>43320</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="14">
         <v>43322</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>43523</v>
+      </c>
+      <c r="C28" s="14">
+        <v>43525</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>43523</v>
-      </c>
-      <c r="C28" s="11">
-        <v>43525</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
